--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4.204118999999999</v>
+      </c>
+      <c r="H2">
+        <v>12.612357</v>
+      </c>
+      <c r="I2">
+        <v>0.01983154129720676</v>
+      </c>
+      <c r="J2">
+        <v>0.01983154129720676</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>4.094072</v>
-      </c>
-      <c r="H2">
-        <v>12.282216</v>
-      </c>
-      <c r="I2">
-        <v>0.0147134235951136</v>
-      </c>
-      <c r="J2">
-        <v>0.0147134235951136</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N2">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O2">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P2">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q2">
-        <v>180.3383869082107</v>
+        <v>5.957973745198</v>
       </c>
       <c r="R2">
-        <v>1623.045482173896</v>
+        <v>53.621763706782</v>
       </c>
       <c r="S2">
-        <v>0.005350010580340536</v>
+        <v>0.0004737615918934253</v>
       </c>
       <c r="T2">
-        <v>0.005350010580340536</v>
+        <v>0.0004737615918934254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H3">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I3">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J3">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.678962</v>
       </c>
       <c r="O3">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P3">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q3">
-        <v>9.114717104421333</v>
+        <v>9.359717014825998</v>
       </c>
       <c r="R3">
-        <v>82.03245393979201</v>
+        <v>84.237453133434</v>
       </c>
       <c r="S3">
-        <v>0.0002704018472244902</v>
+        <v>0.0007442588071472914</v>
       </c>
       <c r="T3">
-        <v>0.0002704018472244902</v>
+        <v>0.0007442588071472917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H4">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I4">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J4">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N4">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O4">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P4">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q4">
-        <v>306.5076118017093</v>
+        <v>234.081594444479</v>
       </c>
       <c r="R4">
-        <v>2758.568506215384</v>
+        <v>2106.734350000311</v>
       </c>
       <c r="S4">
-        <v>0.00909301116754857</v>
+        <v>0.01861352089816604</v>
       </c>
       <c r="T4">
-        <v>0.009093011167548572</v>
+        <v>0.01861352089816604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>543.064652</v>
       </c>
       <c r="I5">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J5">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N5">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O5">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P5">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q5">
-        <v>7973.756798329292</v>
+        <v>256.5392764065502</v>
       </c>
       <c r="R5">
-        <v>71763.81118496362</v>
+        <v>2308.853487658952</v>
       </c>
       <c r="S5">
-        <v>0.2365535367566367</v>
+        <v>0.02039929364769559</v>
       </c>
       <c r="T5">
-        <v>0.2365535367566367</v>
+        <v>0.0203992936476956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>543.064652</v>
       </c>
       <c r="I6">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J6">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>6.678962</v>
       </c>
       <c r="O6">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P6">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q6">
         <v>403.0120193612472</v>
@@ -821,10 +821,10 @@
         <v>3627.108174251224</v>
       </c>
       <c r="S6">
-        <v>0.01195596015109366</v>
+        <v>0.03204640100984923</v>
       </c>
       <c r="T6">
-        <v>0.01195596015109366</v>
+        <v>0.03204640100984924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>543.064652</v>
       </c>
       <c r="I7">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J7">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N7">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O7">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P7">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q7">
-        <v>13552.39555618028</v>
+        <v>10079.11840955629</v>
       </c>
       <c r="R7">
-        <v>121971.5600056226</v>
+        <v>90712.06568600661</v>
       </c>
       <c r="S7">
-        <v>0.4020522799254531</v>
+        <v>0.8014636161232408</v>
       </c>
       <c r="T7">
-        <v>0.4020522799254531</v>
+        <v>0.8014636161232409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H8">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I8">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J8">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N8">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O8">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P8">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q8">
-        <v>1325.093516136878</v>
+        <v>36.92839629064068</v>
       </c>
       <c r="R8">
-        <v>11925.8416452319</v>
+        <v>332.355566615766</v>
       </c>
       <c r="S8">
-        <v>0.03931090020718251</v>
+        <v>0.002936443925558751</v>
       </c>
       <c r="T8">
-        <v>0.03931090020718251</v>
+        <v>0.002936443925558751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H9">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I9">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J9">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>6.678962</v>
       </c>
       <c r="O9">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P9">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q9">
-        <v>66.97327587075533</v>
+        <v>58.01290067287134</v>
       </c>
       <c r="R9">
-        <v>602.759482836798</v>
+        <v>522.116106055842</v>
       </c>
       <c r="S9">
-        <v>0.0019868633664278</v>
+        <v>0.00461302539227979</v>
       </c>
       <c r="T9">
-        <v>0.0019868633664278</v>
+        <v>0.00461302539227979</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H10">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I10">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J10">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N10">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O10">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P10">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q10">
-        <v>2252.161927409103</v>
+        <v>1450.872100763761</v>
       </c>
       <c r="R10">
-        <v>20269.45734668192</v>
+        <v>13057.84890687385</v>
       </c>
       <c r="S10">
-        <v>0.066813784612655</v>
+        <v>0.1153693362018591</v>
       </c>
       <c r="T10">
-        <v>0.06681378461265502</v>
+        <v>0.1153693362018591</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H11">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I11">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J11">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N11">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O11">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P11">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q11">
-        <v>2777.536305040983</v>
+        <v>1.003536338133111</v>
       </c>
       <c r="R11">
-        <v>24997.82674536885</v>
+        <v>9.031827043198</v>
       </c>
       <c r="S11">
-        <v>0.08239980890376179</v>
+        <v>7.979843373093638E-05</v>
       </c>
       <c r="T11">
-        <v>0.08239980890376181</v>
+        <v>7.979843373093639E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H12">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I12">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J12">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>6.678962</v>
       </c>
       <c r="O12">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P12">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q12">
-        <v>140.3830770683002</v>
+        <v>1.576511837869555</v>
       </c>
       <c r="R12">
-        <v>1263.447693614702</v>
+        <v>14.188606540826</v>
       </c>
       <c r="S12">
-        <v>0.004164675976604137</v>
+        <v>0.000125359860564993</v>
       </c>
       <c r="T12">
-        <v>0.004164675976604137</v>
+        <v>0.000125359860564993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H13">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I13">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J13">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N13">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O13">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P13">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q13">
-        <v>4720.769849094703</v>
+        <v>39.42773099705322</v>
       </c>
       <c r="R13">
-        <v>42486.92864185233</v>
+        <v>354.849578973479</v>
       </c>
       <c r="S13">
-        <v>0.1400487665050716</v>
+        <v>0.003135184108014044</v>
       </c>
       <c r="T13">
-        <v>0.1400487665050716</v>
+        <v>0.003135184108014044</v>
       </c>
     </row>
   </sheetData>
